--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act13d5 Maria Nearl 玛莉娅·临光 マリア・ニアール/level_act13d5_01_end.xlsx
@@ -36,7 +36,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Despite her Uncle’s objections, Maria spends several weeks training under Zofia and sees some improvement.
+    <t xml:space="preserve">Despite her Uncle's objections, Maria spends several weeks training under Zofia and sees some improvement.
 </t>
   </si>
   <si>
